--- a/xlsx/社会保障_intext.xlsx
+++ b/xlsx/社会保障_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="153">
   <si>
     <t>社会保障</t>
   </si>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B8%E7%95%B6</t>
   </si>
   <si>
-    <t>典當</t>
+    <t>典当</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A9%E6%9C%83</t>
   </si>
   <si>
-    <t>互助會</t>
+    <t>互助会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E4%BA%A7</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
   </si>
   <si>
-    <t>僱傭</t>
+    <t>僱佣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%B5%84</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>員工福利</t>
+    <t>员工福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%91</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%88%B6%E6%80%A7%E5%85%AC%E7%A9%8D%E9%87%91</t>
   </si>
   <si>
-    <t>強制性公積金</t>
+    <t>强制性公积金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%91%E9%87%91</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>醫療</t>
+    <t>医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%99%A9</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%95%91%E6%BF%9F</t>
   </si>
   <si>
-    <t>社會救濟</t>
+    <t>社会救济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A6%8F%E5%88%A9</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/401k%E9%80%80%E4%BC%91%E7%A6%8F%E5%88%A9%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>401k退休福利計畫</t>
+    <t>401k退休福利计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AD%E5%BD%B9</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BF%9D%E9%9A%9C%E5%9F%BA%E9%87%91_(%E4%B8%AD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會保障基金 (中國)</t>
+    <t>社会保障基金 (中国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E4%BF%9D%E9%9A%AA_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>勞工保險 (中華民國)</t>
+    <t>劳工保险 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E4%BF%9D</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E5%B9%B4%E9%87%91</t>
   </si>
   <si>
-    <t>國民年金</t>
+    <t>国民年金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E5%B9%B4%E9%87%91</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%85%AC%E7%87%9F%E9%86%AB%E7%99%82</t>
   </si>
   <si>
-    <t>香港公營醫療</t>
+    <t>香港公营医疗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2</t>
@@ -305,33 +305,30 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E6%8F%B4</t>
   </si>
   <si>
-    <t>綜援</t>
+    <t>综援</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E7%A9%8D%E9%87%91</t>
   </si>
   <si>
-    <t>強積金</t>
+    <t>强积金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BF%9D%E9%9A%9C%E5%9F%BA%E9%87%91_(%E6%BE%B3%E9%96%80)</t>
   </si>
   <si>
-    <t>社會保障基金 (澳門)</t>
+    <t>社会保障基金 (澳门)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>失業</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%83%B1</t>
   </si>
   <si>
@@ -347,73 +344,70 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F</t>
   </si>
   <si>
-    <t>學生</t>
+    <t>学生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%98%E9%9A%9C</t>
   </si>
   <si>
-    <t>殘障</t>
+    <t>残障</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A9%A6</t>
   </si>
   <si>
-    <t>寡婦</t>
+    <t>寡妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%97%85</t>
   </si>
   <si>
-    <t>職業病</t>
+    <t>职业病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>社會福利</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E6%95%91%E5%8A%A9</t>
   </si>
   <si>
-    <t>失業救助</t>
+    <t>失业救助</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E7%B1%8D%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>外籍勞工</t>
+    <t>外籍劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%8B%9E%E5%B7%A5%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際勞工組織</t>
+    <t>国际劳工组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%96%93%E6%9C%9F</t>
   </si>
   <si>
-    <t>戰間期</t>
+    <t>战间期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%8A%E8%80%81</t>
   </si>
   <si>
-    <t>養老</t>
+    <t>养老</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E6%88%BF</t>
@@ -425,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E5%81%A5</t>
   </si>
   <si>
-    <t>復健</t>
+    <t>复健</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2</t>
@@ -455,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%95%91%E5%8A%A9</t>
   </si>
   <si>
-    <t>社會救助</t>
+    <t>社会救助</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E6%8F%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>後援會</t>
+    <t>后援会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2329,7 +2323,7 @@
         <v>103</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="G52" t="n">
         <v>5</v>
@@ -2355,10 +2349,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2384,10 +2378,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2413,10 +2407,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2442,10 +2436,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2471,10 +2465,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2500,10 +2494,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2558,10 +2552,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2587,10 +2581,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2616,10 +2610,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2645,10 +2639,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -2674,10 +2668,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2703,10 +2697,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>5</v>
@@ -2732,10 +2726,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2761,10 +2755,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2819,10 +2813,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2848,10 +2842,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2877,10 +2871,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2906,10 +2900,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -2935,10 +2929,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -2964,10 +2958,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -2993,10 +2987,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3022,10 +3016,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3051,10 +3045,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -3080,10 +3074,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3109,10 +3103,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
